--- a/Assets/DataTable/Test.xlsx
+++ b/Assets/DataTable/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Private\DataTable\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Private\DataTableGenerator\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A7F875-4829-43B3-A471-A2352D45A974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CDA64B-432E-4FD5-B691-79E4E2703F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="3705" windowWidth="21600" windowHeight="13185" xr2:uid="{5314804D-5716-4C5A-9AEF-065AD0AFCFB0}"/>
+    <workbookView xWindow="4410" yWindow="4050" windowWidth="21600" windowHeight="13185" xr2:uid="{5314804D-5716-4C5A-9AEF-065AD0AFCFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>abcd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1903-05-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +154,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +476,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -484,8 +499,8 @@
       <c r="D1" s="3">
         <v>1234</v>
       </c>
-      <c r="E1" s="4">
-        <v>1234</v>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="5">
         <v>1234</v>
@@ -522,23 +537,37 @@
       <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>2</v>
+      <c r="E2" s="13">
+        <v>36</v>
+      </c>
+      <c r="F2" s="13">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <f>SUM(E2:F2)</f>
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(H2, I2)</f>
+        <v>abcdef</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B87A18AE8BCAA41B50E926DA4E47255" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="de2bf8356b7e8820f1c4f6486670d06f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63e6dabff359bffcd2743e772f59a2f6">
     <xsd:element name="properties">
@@ -652,6 +681,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -662,21 +697,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCAA4BB-2C35-49EE-8B52-A5BB5E0B5E19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6F5AF44-B19E-4D89-9522-2745FD39402A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -692,6 +712,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCAA4BB-2C35-49EE-8B52-A5BB5E0B5E19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66B46FA8-E90E-4C95-ABF5-6B39F6B75522}">
   <ds:schemaRefs>
